--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_14_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_14_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53174.13725415021</v>
+        <v>10581653.31357588</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53174.13725415021</v>
+        <v>10581653.31357588</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86.27031193816731</v>
+        <v>5176.218716290039</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86.27031193816731</v>
+        <v>5176.218716290039</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1112564701.364177</v>
+        <v>45752096.4452417</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9385.919225592776</v>
+        <v>1040524.215998818</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17949.51391510988</v>
+        <v>1953072.202430707</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26513.10860462697</v>
+        <v>2865620.188862599</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35492.27000002839</v>
+        <v>3798635.439265347</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44371.09523381363</v>
+        <v>4711683.793506478</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>53249.92046759888</v>
+        <v>5624732.147747609</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>62128.74570138412</v>
+        <v>6537780.501988737</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>71007.57093516935</v>
+        <v>7450828.856229864</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>79886.3961689546</v>
+        <v>8363877.210470992</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>88765.22140273983</v>
+        <v>9276925.56471212</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>97644.04663652506</v>
+        <v>10189973.91895325</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>106141.298752145</v>
+        <v>11084710.09218429</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>114730.5718778659</v>
+        <v>11997758.44642543</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>123319.8450035868</v>
+        <v>12910806.80066656</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>131909.1181293077</v>
+        <v>13823855.1549077</v>
       </c>
     </row>
   </sheetData>
